--- a/jx_api/data/cases.xlsx
+++ b/jx_api/data/cases.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="10" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11790" windowWidth="21000"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="11790" tabRatio="600" firstSheet="1" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="customer" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Purorder" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysUpdownstream" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="epcstock" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="salse" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="productStyle" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="franchisee" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="payment" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="leading_out" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="wxMall" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="customer" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Purorder" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysUpdownstream" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="epcstock" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="salse" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="productStyle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="franchisee" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="payment" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="leading_out" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wxMall" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -545,245 +545,245 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1140,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1151,17 +1151,17 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10.225"/>
-    <col customWidth="1" max="2" min="2" width="28.75"/>
-    <col customWidth="1" max="3" min="3" width="15.375"/>
-    <col customWidth="1" max="4" min="4" width="8.5"/>
-    <col customWidth="1" max="5" min="5" width="45.25"/>
-    <col customWidth="1" max="6" min="6" width="10.3333333333333"/>
-    <col customWidth="1" max="7" min="7" width="24.25"/>
-    <col customWidth="1" max="8" min="8" width="29.875"/>
-    <col customWidth="1" max="9" min="9" width="15.375"/>
+    <col width="10.225" customWidth="1" min="1" max="1"/>
+    <col width="28.75" customWidth="1" min="2" max="2"/>
+    <col width="15.375" customWidth="1" min="3" max="3"/>
+    <col width="8.5" customWidth="1" min="4" max="4"/>
+    <col width="45.25" customWidth="1" min="5" max="5"/>
+    <col width="10.3333333333333" customWidth="1" min="6" max="6"/>
+    <col width="24.25" customWidth="1" min="7" max="7"/>
+    <col width="29.875" customWidth="1" min="8" max="8"/>
+    <col width="15.375" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.4" r="2">
+    <row r="2" ht="17.4" customHeight="1">
       <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="3">
+    <row r="3" ht="16" customHeight="1">
       <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.4" r="4">
+    <row r="4" ht="17.4" customHeight="1">
       <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.4" r="5">
+    <row r="5" ht="17.4" customHeight="1">
       <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="6">
+    <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="7">
+    <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="8">
+    <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
@@ -1528,106 +1528,106 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId92"/>
-    <hyperlink display="/user/login" ref="C3" r:id="rId93"/>
-    <hyperlink display="/user/login" ref="C4" r:id="rId94"/>
-    <hyperlink display="/user/login" ref="C5" r:id="rId95"/>
-    <hyperlink display="/user/login" ref="C6" r:id="rId96"/>
-    <hyperlink display="/user/login" ref="C7" r:id="rId97"/>
-    <hyperlink display="/user/login" ref="C8" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/user/login" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="/user/login" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/user/login" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="/user/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="/user/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="/user/login" r:id="rId98"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1646,13 +1646,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="23.125"/>
-    <col customWidth="1" max="3" min="3" width="46.875"/>
-    <col customWidth="1" max="5" min="5" width="65"/>
-    <col customWidth="1" max="7" min="7" width="50.625"/>
+    <col width="23.125" customWidth="1" min="2" max="2"/>
+    <col width="46.875" customWidth="1" min="3" max="3"/>
+    <col width="65" customWidth="1" min="5" max="5"/>
+    <col width="50.625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12" r="1">
+    <row r="1" ht="12" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -3635,12 +3635,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3653,14 +3653,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="22.75"/>
-    <col customWidth="1" max="3" min="3" width="46.125"/>
-    <col customWidth="1" max="5" min="5" width="121.375"/>
-    <col customWidth="1" max="6" min="6" width="10.625"/>
-    <col customWidth="1" max="7" min="7" width="18.75"/>
-    <col customWidth="1" max="8" min="8" width="21.375"/>
-    <col customWidth="1" max="9" min="9" width="25.25"/>
-    <col customWidth="1" max="10" min="10" width="35"/>
+    <col width="22.75" customWidth="1" min="2" max="2"/>
+    <col width="46.125" customWidth="1" min="3" max="3"/>
+    <col width="121.375" customWidth="1" min="5" max="5"/>
+    <col width="10.625" customWidth="1" min="6" max="6"/>
+    <col width="18.75" customWidth="1" min="7" max="7"/>
+    <col width="21.375" customWidth="1" min="8" max="8"/>
+    <col width="25.25" customWidth="1" min="9" max="9"/>
+    <col width="35" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>编辑成功</t>
+          <t>{"status":-1,"message":"feign.RetryableException"}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{"timestamp":1607334625492,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/productStyle/getOnline"}</t>
+          <t>{"timestamp":1612177368750,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/productStyle/getOnline"}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{"timestamp":1607334625698,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/cart/addCart"}</t>
+          <t>{"timestamp":1612177368946,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/cart/addCart"}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -4347,27 +4347,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4380,16 +4380,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12.3333333333333"/>
-    <col customWidth="1" max="2" min="2" width="14.125"/>
-    <col customWidth="1" max="3" min="3" width="40"/>
-    <col customWidth="1" max="4" min="4" width="8.5"/>
-    <col customWidth="1" max="5" min="5" width="42.625"/>
-    <col customWidth="1" max="6" min="6" width="9.55833333333333"/>
-    <col customWidth="1" max="7" min="7" width="26.25"/>
-    <col customWidth="1" max="8" min="8" width="23.875"/>
-    <col customWidth="1" max="9" min="9" width="9.108333333333331"/>
-    <col customWidth="1" max="10" min="10" width="63.5583333333333"/>
+    <col width="12.3333333333333" customWidth="1" min="1" max="1"/>
+    <col width="14.125" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="8.5" customWidth="1" min="4" max="4"/>
+    <col width="42.625" customWidth="1" min="5" max="5"/>
+    <col width="9.55833333333333" customWidth="1" min="6" max="6"/>
+    <col width="26.25" customWidth="1" min="7" max="7"/>
+    <col width="23.875" customWidth="1" min="8" max="8"/>
+    <col width="9.108333333333331" customWidth="1" min="9" max="9"/>
+    <col width="63.5583333333333" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.4" r="2">
+    <row r="2" ht="17.4" customHeight="1">
       <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -5077,22 +5077,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId14"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -5111,15 +5111,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8.891666666666669"/>
-    <col customWidth="1" max="2" min="2" width="12.625"/>
-    <col customWidth="1" max="3" min="3" width="38.125"/>
-    <col customWidth="1" max="4" min="4" width="6.625"/>
-    <col customWidth="1" max="5" min="5" width="76.125"/>
-    <col customWidth="1" max="6" min="6" width="9.225"/>
-    <col customWidth="1" max="7" min="7" width="17.6666666666667"/>
-    <col customWidth="1" max="8" min="8" width="48.775"/>
-    <col customWidth="1" max="16384" min="9" width="8.891666666666669"/>
+    <col width="8.891666666666669" customWidth="1" min="1" max="1"/>
+    <col width="12.625" customWidth="1" min="2" max="2"/>
+    <col width="38.125" customWidth="1" min="3" max="3"/>
+    <col width="6.625" customWidth="1" min="4" max="4"/>
+    <col width="76.125" customWidth="1" min="5" max="5"/>
+    <col width="9.225" customWidth="1" min="6" max="6"/>
+    <col width="17.6666666666667" customWidth="1" min="7" max="7"/>
+    <col width="48.775" customWidth="1" min="8" max="8"/>
+    <col width="8.891666666666669" customWidth="1" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14" r="9">
+    <row r="9" ht="14" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5638,11 +5638,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="26.3333333333333"/>
-    <col customWidth="1" max="3" min="3" width="33"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="75.5"/>
-    <col customWidth="1" max="7" min="7" width="23.375"/>
+    <col width="26.3333333333333" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="75.5" customWidth="1" min="5" max="5"/>
+    <col width="23.375" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6278,7 +6278,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6296,9 +6296,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="20.125"/>
-    <col customWidth="1" max="3" min="3" width="40.125"/>
-    <col customWidth="1" max="5" min="5" width="61.625"/>
+    <col width="20.125" customWidth="1" min="2" max="2"/>
+    <col width="40.125" customWidth="1" min="3" max="3"/>
+    <col width="61.625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7114,7 +7114,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7132,11 +7132,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="15.5"/>
-    <col customWidth="1" max="3" min="3" width="29.75"/>
-    <col customWidth="1" max="4" min="4" width="6.625"/>
-    <col customWidth="1" max="5" min="5" width="67.25"/>
-    <col customWidth="1" max="7" min="7" width="18.875"/>
+    <col width="15.5" customWidth="1" min="2" max="2"/>
+    <col width="29.75" customWidth="1" min="3" max="3"/>
+    <col width="6.625" customWidth="1" min="4" max="4"/>
+    <col width="67.25" customWidth="1" min="5" max="5"/>
+    <col width="18.875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7727,7 +7727,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7745,13 +7745,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.5"/>
-    <col customWidth="1" max="2" min="2" width="19.625"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
-    <col customWidth="1" max="4" min="4" width="5.375"/>
-    <col customWidth="1" max="5" min="5" width="54.375"/>
-    <col customWidth="1" max="6" min="6" width="7.375"/>
-    <col customWidth="1" max="7" min="7" width="16.875"/>
+    <col width="9.5" customWidth="1" min="1" max="1"/>
+    <col width="19.625" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="5.375" customWidth="1" min="4" max="4"/>
+    <col width="54.375" customWidth="1" min="5" max="5"/>
+    <col width="7.375" customWidth="1" min="6" max="6"/>
+    <col width="16.875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9016,7 +9016,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="29">
+    <row r="29" ht="12" customHeight="1">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -9367,12 +9367,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9385,10 +9385,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="18.5"/>
-    <col customWidth="1" max="3" min="3" width="44.25"/>
-    <col customWidth="1" max="4" min="4" width="5.875"/>
-    <col customWidth="1" max="5" min="5" width="46.125"/>
+    <col width="18.5" customWidth="1" min="2" max="2"/>
+    <col width="44.25" customWidth="1" min="3" max="3"/>
+    <col width="5.875" customWidth="1" min="4" max="4"/>
+    <col width="46.125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9438,7 +9438,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="2">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.4" r="3">
+    <row r="3" ht="17.4" customHeight="1">
       <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="J4" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="5">
+    <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
@@ -9619,7 +9619,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="6">
+    <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
@@ -9664,7 +9664,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="7">
+    <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
@@ -9709,7 +9709,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="8">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="J8" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="9">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="15" t="n">
         <v>8</v>
       </c>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="J9" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="10">
+    <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="15" t="n">
         <v>9</v>
       </c>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="11">
+    <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="15" t="n">
         <v>10</v>
       </c>
@@ -9891,7 +9891,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="12">
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="15" t="n">
         <v>11</v>
       </c>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="J12" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="13">
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="15" t="n">
         <v>12</v>
       </c>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="J13" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="14">
+    <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="15" t="n">
         <v>13</v>
       </c>
@@ -10030,41 +10030,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
-    <hyperlink display="/user/login" ref="C2" r:id="rId27"/>
-    <hyperlink display="/franchiseePurchaseRequestBill/saveOrUpdate" ref="C3" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="/user/login" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="/franchiseePurchaseRequestBill/saveOrUpdate" r:id="rId28"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10075,15 +10075,15 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="20.25"/>
-    <col customWidth="1" max="3" min="3" width="48"/>
-    <col customWidth="1" max="5" min="5" width="76.5"/>
-    <col customWidth="1" max="7" min="7" width="17"/>
+    <col width="20.25" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="76.5" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.5" r="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="2">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="3">
+    <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -10220,7 +10220,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="4">
+    <row r="4" ht="13.5" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -10265,7 +10265,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="5">
+    <row r="5" ht="13.5" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -10310,7 +10310,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="6">
+    <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -10355,7 +10355,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="7">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="J7" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="8">
+    <row r="8" ht="13.5" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -10446,7 +10446,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="9">
+    <row r="9" ht="13.5" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="10">
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -10536,7 +10536,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="11">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="12">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="13">
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -10671,7 +10671,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="14">
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="15">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -10761,7 +10761,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="16">
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
@@ -10806,7 +10806,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="17">
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="18">
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="n">
         <v>17</v>
       </c>
@@ -10896,7 +10896,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="19">
+    <row r="19" ht="13.5" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="20">
+    <row r="20" ht="13.5" customHeight="1">
       <c r="A20" t="n">
         <v>19</v>
       </c>
@@ -10986,7 +10986,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="21">
+    <row r="21" ht="13.5" customHeight="1">
       <c r="A21" t="n">
         <v>20</v>
       </c>
@@ -11031,7 +11031,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="22">
+    <row r="22" ht="13.5" customHeight="1">
       <c r="A22" t="n">
         <v>21</v>
       </c>
@@ -11076,7 +11076,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="23">
+    <row r="23" ht="13.5" customHeight="1">
       <c r="A23" t="n">
         <v>22</v>
       </c>
@@ -11121,7 +11121,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="24">
+    <row r="24" ht="13.5" customHeight="1">
       <c r="A24" t="n">
         <v>23</v>
       </c>
@@ -11166,7 +11166,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="25">
+    <row r="25" ht="13.5" customHeight="1">
       <c r="A25" t="n">
         <v>24</v>
       </c>
@@ -11211,7 +11211,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="26">
+    <row r="26" ht="13.5" customHeight="1">
       <c r="A26" t="n">
         <v>25</v>
       </c>
@@ -11258,21 +11258,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
-    <hyperlink display="/sys/paymentAccount/saveOrUpdate" ref="C5" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="/sys/paymentAccount/saveOrUpdate" r:id="rId14"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/jx_api/data/cases.xlsx
+++ b/jx_api/data/cases.xlsx
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{"timestamp":1612177368750,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/productStyle/getOnline"}</t>
+          <t>{"timestamp":1612230672722,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/productStyle/getOnline"}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{"timestamp":1612177368946,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/cart/addCart"}</t>
+          <t>{"timestamp":1612230672912,"status":500241,"error":"Http Status 500241","message":"","path":"/wxMall/fu/cart/addCart"}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
